--- a/DATA_goal/Junction_Flooding_175.xlsx
+++ b/DATA_goal/Junction_Flooding_175.xlsx
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41607.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>17.12</v>
+        <v>1.71</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.25</v>
+        <v>1.32</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>91.01000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>17.69</v>
+        <v>1.77</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>14.57</v>
+        <v>1.46</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41607.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>1.44</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>33.83</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>14.45</v>
-      </c>
       <c r="J3" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.35</v>
+        <v>1.14</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.31</v>
+        <v>0.83</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AB3" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>136.87</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>26.45</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>17.28</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>18.09</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>7.05</v>
-      </c>
       <c r="AC3" s="4" t="n">
-        <v>8.18</v>
+        <v>0.82</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.96</v>
+        <v>3.1</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41607.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.05</v>
+        <v>0.21</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="W4" s="4" t="n">
         <v>0.27</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>2.71</v>
-      </c>
       <c r="X4" s="4" t="n">
-        <v>1.55</v>
+        <v>0.15</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41607.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W5" s="4" t="n">
         <v>0.19</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.89</v>
-      </c>
       <c r="X5" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.92</v>
+        <v>0.59</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41607.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>12.75</v>
+        <v>1.28</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>27.97</v>
+        <v>2.8</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>22.77</v>
+        <v>2.28</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>34.02</v>
+        <v>3.4</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>15.48</v>
+        <v>1.55</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.17</v>
+        <v>0.72</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>14.13</v>
+        <v>1.41</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="S6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="T6" s="4" t="n">
-        <v>146</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.97</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.54</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>30.54</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.18</v>
-      </c>
       <c r="AH6" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41607.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>14.98</v>
+        <v>1.5</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J7" s="4" t="n">
         <v>0.84</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>32.79</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>26.81</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>45.05</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
       <c r="K7" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>13.17</v>
+        <v>1.32</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>16.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>1</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>172.36</v>
+        <v>17.24</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>33.01</v>
+        <v>3.3</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>22.15</v>
+        <v>2.21</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>11.74</v>
+        <v>1.17</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.55</v>
+        <v>0.16</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>22.56</v>
+        <v>2.26</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>41.05</v>
+        <v>4.1</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41607.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>39.28</v>
+        <v>3.93</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>32.21</v>
+        <v>3.22</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>13.96</v>
+        <v>1.4</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>54.77</v>
+        <v>5.48</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>21.79</v>
+        <v>2.18</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>14.34</v>
+        <v>1.43</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>15.77</v>
+        <v>1.58</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>16.76</v>
+        <v>1.68</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>20.06</v>
+        <v>2.01</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>207.85</v>
+        <v>20.78</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>39.53</v>
+        <v>3.95</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>13.05</v>
+        <v>1.3</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>26.6</v>
+        <v>2.66</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>27.08</v>
+        <v>2.71</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>49.82</v>
+        <v>4.98</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.35</v>
+        <v>0.74</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41607.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>22.88</v>
+        <v>2.29</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>17.17</v>
+        <v>1.72</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>49.94</v>
+        <v>4.99</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>41.06</v>
+        <v>4.11</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>69.72</v>
+        <v>6.97</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>27.73</v>
+        <v>2.77</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>12.64</v>
+        <v>1.26</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>18.36</v>
+        <v>1.84</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>21.28</v>
+        <v>2.13</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>25.56</v>
+        <v>2.56</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>266.23</v>
+        <v>26.62</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>50.25</v>
+        <v>5.03</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>33.89</v>
+        <v>3.39</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>34.34</v>
+        <v>3.43</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>21.1</v>
+        <v>2.11</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>63.37</v>
+        <v>6.34</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>20.74</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41607.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>22.41</v>
+        <v>2.24</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>16.82</v>
+        <v>1.68</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>48.9</v>
+        <v>4.89</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>40.22</v>
+        <v>4.02</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>17.49</v>
+        <v>1.75</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>69.45</v>
+        <v>6.95</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>27.16</v>
+        <v>2.72</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>19.63</v>
+        <v>1.96</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>20.83</v>
+        <v>2.08</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>17.6</v>
+        <v>1.76</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>25.05</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>260.51</v>
+        <v>26.05</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>49.23</v>
+        <v>4.92</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>33.21</v>
+        <v>3.32</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>17.5</v>
+        <v>1.75</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>33.97</v>
+        <v>3.4</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>14.35</v>
+        <v>1.43</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>12.65</v>
+        <v>1.27</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>14.88</v>
+        <v>1.49</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>20.65</v>
+        <v>2.07</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>63.13</v>
+        <v>6.31</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>20.31</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_175.xlsx
+++ b/DATA_goal/Junction_Flooding_175.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44856.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.14</v>
+        <v>21.43</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.75</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.43</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.12</v>
+        <v>21.23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.53</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.37</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>11.28</v>
+        <v>112.77</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.17</v>
+        <v>21.72</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.64</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.42</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.85</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.96</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.24</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44856.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.7</v>
+        <v>17.04</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.65</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.75</v>
+        <v>37.52</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3</v>
+        <v>29.95</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.26</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.92</v>
+        <v>49.21</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.88</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.07</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.07</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.07</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.9</v>
+        <v>18.98</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.76</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>19.87</v>
+        <v>198.68</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.78</v>
+        <v>37.8</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.5</v>
+        <v>25.03</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.22</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.55</v>
+        <v>25.51</v>
       </c>
       <c r="AA3" s="4" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.1</v>
       </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>4.51</v>
+        <v>45.11</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44856.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.87</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.4</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.12</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.55</v>
+        <v>35.52</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.32</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.12</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.55</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>12.43</v>
+        <v>124.3</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.43</v>
+        <v>24.26</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.6</v>
+        <v>16.04</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.44</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.77</v>
+        <v>17.66</v>
       </c>
       <c r="AA4" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>3.26</v>
+        <v>32.64</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.35</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44856.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.09</v>
+        <v>20.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.72</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.03</v>
+        <v>30.34</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.58</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>107.12</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>2.77</v>
+        <v>27.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_175.xlsx
+++ b/DATA_goal/Junction_Flooding_175.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>44856.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.69</v>
+        <v>9.686</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>6.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.91</v>
+        <v>2.907</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>21.43</v>
+        <v>21.429</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>15.75</v>
+        <v>15.753</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.43</v>
+        <v>7.426</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>21.23</v>
+        <v>21.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.148</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.04</v>
+        <v>5.042</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.42</v>
+        <v>6.422</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.57</v>
+        <v>8.574</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>9.294</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.53</v>
+        <v>2.529</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>10.53</v>
+        <v>10.528</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.37</v>
+        <v>7.369</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.83</v>
+        <v>0.826</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>112.77</v>
+        <v>112.771</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>21.72</v>
+        <v>21.717</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>13.64</v>
+        <v>13.637</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.42</v>
+        <v>7.423</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.54</v>
+        <v>1.536</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.85</v>
+        <v>12.849</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.96</v>
+        <v>5.959</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>6.92</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>9.375999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.46</v>
+        <v>2.459</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>19.24</v>
+        <v>19.236</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.64</v>
+        <v>3.642</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>9.109999999999999</v>
@@ -759,25 +759,25 @@
         <v>44856.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.04</v>
+        <v>17.045</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.65</v>
+        <v>12.647</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.68</v>
+        <v>1.684</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>37.52</v>
+        <v>37.523</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>29.95</v>
+        <v>29.954</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.26</v>
+        <v>13.256</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>49.21</v>
+        <v>49.206</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>20.88</v>
@@ -786,76 +786,76 @@
         <v>9.279999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.07</v>
+        <v>13.069</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>15.07</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.07</v>
+        <v>16.066</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.35</v>
+        <v>4.347</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.53</v>
+        <v>13.535</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.98</v>
+        <v>18.982</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.76</v>
+        <v>11.759</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.213</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.739</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>198.68</v>
+        <v>198.683</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>37.8</v>
+        <v>37.801</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.49</v>
+        <v>12.493</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.03</v>
+        <v>25.031</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.22</v>
+        <v>13.224</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>25.51</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.03</v>
+        <v>11.035</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.9</v>
+        <v>9.896000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>11.63</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.92</v>
+        <v>15.923</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.098</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>45.11</v>
+        <v>45.111</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.84</v>
+        <v>6.835</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.62</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44856.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.87</v>
+        <v>10.868</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.07</v>
+        <v>8.071999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.08</v>
+        <v>1.078</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24</v>
+        <v>23.996</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.12</v>
+        <v>19.119</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.42</v>
+        <v>8.420999999999999</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>35.52</v>
+        <v>35.521</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.32</v>
+        <v>13.323</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.98</v>
+        <v>5.982</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>8.291</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>9.641</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.3</v>
+        <v>10.304</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.78</v>
+        <v>2.779</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.12</v>
+        <v>12.125</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.55</v>
+        <v>7.554</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.819</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>124.3</v>
+        <v>124.302</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>24.26</v>
+        <v>24.262</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.04</v>
+        <v>16.037</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.44</v>
+        <v>8.439</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.18</v>
+        <v>1.178</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.66</v>
+        <v>17.665</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>7.05</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.35</v>
+        <v>6.349</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.46</v>
+        <v>7.458</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.17</v>
+        <v>10.168</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.707</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>32.64</v>
+        <v>32.644</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.35</v>
+        <v>4.351</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>8.68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44856.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.88</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.95</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.91</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.65</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.38</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_175.xlsx
+++ b/DATA_goal/Junction_Flooding_175.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44856.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>9.465999999999999</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.05</v>
+        <v>7.047</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.843</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.88</v>
+        <v>20.879</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.72</v>
+        <v>16.724</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.34</v>
+        <v>7.337</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.34</v>
+        <v>30.339</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.58</v>
+        <v>11.582</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>5.23</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.28</v>
+        <v>7.275</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>8.388</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>8.965</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.42</v>
+        <v>2.416</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.56</v>
+        <v>10.557</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.53</v>
+        <v>6.531</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.637</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>107.12</v>
+        <v>107.124</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>21.06</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.35</v>
+        <v>7.347</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.01</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.01</v>
+        <v>15.006</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.51</v>
+        <v>5.509</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.47</v>
+        <v>6.472</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.84</v>
+        <v>8.835000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>27.718</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>3.804</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>8.677</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44856.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>27.72</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>8.68</v>
+      <c r="S6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>89.95</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.38</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_175.xlsx
+++ b/DATA_goal/Junction_Flooding_175.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44856.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.465999999999999</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.047</v>
+        <v>7.05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.843</v>
+        <v>0.84</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.879</v>
+        <v>20.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.724</v>
+        <v>16.72</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.337</v>
+        <v>7.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.339</v>
+        <v>30.34</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.582</v>
+        <v>11.58</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>5.23</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.275</v>
+        <v>7.28</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.388</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.965</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.416</v>
+        <v>2.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.519</v>
+        <v>7.52</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.557</v>
+        <v>10.56</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.531</v>
+        <v>6.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.637</v>
+        <v>0.64</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>107.124</v>
+        <v>107.12</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>21.06</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.941</v>
+        <v>6.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.961</v>
+        <v>13.96</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.347</v>
+        <v>7.35</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.01</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.006</v>
+        <v>15.01</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.131</v>
+        <v>6.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.509</v>
+        <v>5.51</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.472</v>
+        <v>6.47</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.835000000000001</v>
+        <v>8.84</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.521</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.718</v>
+        <v>27.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.804</v>
+        <v>3.8</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.677</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44856.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.88</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.95</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.91</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.65</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.38</v>
+        <v>8.68</v>
       </c>
     </row>
   </sheetData>
